--- a/data/pca/factorExposure/factorExposure_2014-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.003687521171573582</v>
+        <v>0.01860451137036916</v>
       </c>
       <c r="C2">
-        <v>-0.1129497210499775</v>
+        <v>0.06679032597296668</v>
       </c>
       <c r="D2">
-        <v>0.0316830547866043</v>
+        <v>0.03159087502284194</v>
       </c>
       <c r="E2">
-        <v>0.2238080637236602</v>
+        <v>-0.008728834584348628</v>
       </c>
       <c r="F2">
-        <v>0.04489982469102711</v>
+        <v>-0.1214078254864264</v>
       </c>
       <c r="G2">
-        <v>-0.0510564115408339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1111359582371863</v>
+      </c>
+      <c r="H2">
+        <v>-0.01523587987548276</v>
+      </c>
+      <c r="I2">
+        <v>-0.07989472784821779</v>
+      </c>
+      <c r="J2">
+        <v>0.09248249456206971</v>
+      </c>
+      <c r="K2">
+        <v>0.03485672499588473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01583640634214742</v>
+        <v>0.01939157124503837</v>
       </c>
       <c r="C4">
-        <v>-0.1656983235557764</v>
+        <v>0.1432315607351509</v>
       </c>
       <c r="D4">
-        <v>0.03763477275338462</v>
+        <v>0.0652123047870312</v>
       </c>
       <c r="E4">
-        <v>0.05035823734769482</v>
+        <v>0.03706631743337268</v>
       </c>
       <c r="F4">
-        <v>-0.06613703064581559</v>
+        <v>-0.01752079970171072</v>
       </c>
       <c r="G4">
-        <v>0.02806615348520158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06361547208723363</v>
+      </c>
+      <c r="H4">
+        <v>0.02856937413265464</v>
+      </c>
+      <c r="I4">
+        <v>-0.1075536645134051</v>
+      </c>
+      <c r="J4">
+        <v>-0.006032015318071756</v>
+      </c>
+      <c r="K4">
+        <v>-0.01053427892454782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.01891289957459688</v>
+        <v>0.03866612379445107</v>
       </c>
       <c r="C6">
-        <v>-0.07728367178917986</v>
+        <v>0.08522449258237635</v>
       </c>
       <c r="D6">
-        <v>0.05663273042718583</v>
+        <v>0.02747810123923059</v>
       </c>
       <c r="E6">
-        <v>0.05364995118343721</v>
+        <v>-0.001767130045283029</v>
       </c>
       <c r="F6">
-        <v>-0.006939304126311051</v>
+        <v>-0.06065797404116969</v>
       </c>
       <c r="G6">
-        <v>0.04461940743336675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01752881188309983</v>
+      </c>
+      <c r="H6">
+        <v>0.0567042200593079</v>
+      </c>
+      <c r="I6">
+        <v>-0.009936531853526429</v>
+      </c>
+      <c r="J6">
+        <v>-0.05165634858633129</v>
+      </c>
+      <c r="K6">
+        <v>0.03735681400513942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.001972872219764779</v>
+        <v>0.01898591056706961</v>
       </c>
       <c r="C7">
-        <v>-0.06474449649717146</v>
+        <v>0.07072017531896398</v>
       </c>
       <c r="D7">
-        <v>0.03809982317092962</v>
+        <v>0.03246537416068542</v>
       </c>
       <c r="E7">
-        <v>0.0107044581953155</v>
+        <v>0.0265335170542975</v>
       </c>
       <c r="F7">
-        <v>-0.03014178922213779</v>
+        <v>-0.003109752670424349</v>
       </c>
       <c r="G7">
-        <v>0.03655313784252937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01243196363770871</v>
+      </c>
+      <c r="H7">
+        <v>0.03041395406753654</v>
+      </c>
+      <c r="I7">
+        <v>-0.09680491561346563</v>
+      </c>
+      <c r="J7">
+        <v>0.03855598767517182</v>
+      </c>
+      <c r="K7">
+        <v>0.02546854742018343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01319847324185486</v>
+        <v>0.001400184319050401</v>
       </c>
       <c r="C8">
-        <v>-0.07098685942377957</v>
+        <v>0.06097676039526982</v>
       </c>
       <c r="D8">
-        <v>0.0454752381360715</v>
+        <v>0.04875596915817642</v>
       </c>
       <c r="E8">
-        <v>0.05902851168305141</v>
+        <v>0.03327554709376205</v>
       </c>
       <c r="F8">
-        <v>-0.01060250799441291</v>
+        <v>-0.06256311098807658</v>
       </c>
       <c r="G8">
-        <v>-0.01045238497091704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01290548230795771</v>
+      </c>
+      <c r="H8">
+        <v>-0.01184784167987745</v>
+      </c>
+      <c r="I8">
+        <v>-0.04525981239023565</v>
+      </c>
+      <c r="J8">
+        <v>-0.03162500550976109</v>
+      </c>
+      <c r="K8">
+        <v>-0.007693070717402472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.008594154889956589</v>
+        <v>0.01417559782168466</v>
       </c>
       <c r="C9">
-        <v>-0.1169129597777371</v>
+        <v>0.1008573179462202</v>
       </c>
       <c r="D9">
-        <v>0.04971146081884616</v>
+        <v>0.04009375420001112</v>
       </c>
       <c r="E9">
-        <v>0.01312668884886032</v>
+        <v>0.005523671379198853</v>
       </c>
       <c r="F9">
-        <v>-0.01022626845236327</v>
+        <v>-0.009878617221420636</v>
       </c>
       <c r="G9">
-        <v>0.04139185379831763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04515211763941664</v>
+      </c>
+      <c r="H9">
+        <v>0.01361026095164206</v>
+      </c>
+      <c r="I9">
+        <v>-0.1133237305895242</v>
+      </c>
+      <c r="J9">
+        <v>0.007026032651187192</v>
+      </c>
+      <c r="K9">
+        <v>0.01719785744145853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2727318057387706</v>
+        <v>0.2478541290414143</v>
       </c>
       <c r="C10">
-        <v>0.0693457797088185</v>
+        <v>-0.09647358986985938</v>
       </c>
       <c r="D10">
-        <v>-0.02041362821051126</v>
+        <v>-0.003029358508133583</v>
       </c>
       <c r="E10">
-        <v>-0.03224447960956602</v>
+        <v>0.02227304109695038</v>
       </c>
       <c r="F10">
-        <v>-0.009880234276336271</v>
+        <v>-0.03365142279230121</v>
       </c>
       <c r="G10">
-        <v>-0.001084973854641638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0498929325301909</v>
+      </c>
+      <c r="H10">
+        <v>0.02083411472885853</v>
+      </c>
+      <c r="I10">
+        <v>-0.03163834771627258</v>
+      </c>
+      <c r="J10">
+        <v>-0.01278878138279195</v>
+      </c>
+      <c r="K10">
+        <v>-0.1542914687245208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.003756165247537918</v>
+        <v>0.01736939879407333</v>
       </c>
       <c r="C11">
-        <v>-0.06855314322216013</v>
+        <v>0.08004133638511171</v>
       </c>
       <c r="D11">
-        <v>0.03229281603023505</v>
+        <v>0.03850424785576227</v>
       </c>
       <c r="E11">
-        <v>-0.02276355248199964</v>
+        <v>-0.001197080781936659</v>
       </c>
       <c r="F11">
-        <v>-0.01087298565156528</v>
+        <v>0.01212348484791704</v>
       </c>
       <c r="G11">
-        <v>0.04366380007599992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002274965060443342</v>
+      </c>
+      <c r="H11">
+        <v>0.009539907012818481</v>
+      </c>
+      <c r="I11">
+        <v>-0.03734478000657676</v>
+      </c>
+      <c r="J11">
+        <v>-0.0001252571727113762</v>
+      </c>
+      <c r="K11">
+        <v>0.0286972154476074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.001734781357059625</v>
+        <v>0.01617933120482942</v>
       </c>
       <c r="C12">
-        <v>-0.04524063309541883</v>
+        <v>0.05245353375172849</v>
       </c>
       <c r="D12">
-        <v>0.03760594468656206</v>
+        <v>0.0260176316908086</v>
       </c>
       <c r="E12">
-        <v>-0.01022672648900386</v>
+        <v>-0.01682544878322235</v>
       </c>
       <c r="F12">
-        <v>0.01488964163378728</v>
+        <v>-0.004118928654646397</v>
       </c>
       <c r="G12">
-        <v>0.05340626911916443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005506305292034865</v>
+      </c>
+      <c r="H12">
+        <v>0.02533536023841089</v>
+      </c>
+      <c r="I12">
+        <v>-0.03307279560027949</v>
+      </c>
+      <c r="J12">
+        <v>-0.01002691498542911</v>
+      </c>
+      <c r="K12">
+        <v>0.01553364023513591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.004454590046365242</v>
+        <v>0.004023885416476517</v>
       </c>
       <c r="C13">
-        <v>-0.116959656470199</v>
+        <v>0.1110818985597376</v>
       </c>
       <c r="D13">
-        <v>0.08146358819193983</v>
+        <v>0.04123331639259618</v>
       </c>
       <c r="E13">
-        <v>0.05731469414387551</v>
+        <v>-0.0530570951885889</v>
       </c>
       <c r="F13">
-        <v>0.05701150973341672</v>
+        <v>-0.1442353664814016</v>
       </c>
       <c r="G13">
-        <v>0.1380312271700658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05438608644373255</v>
+      </c>
+      <c r="H13">
+        <v>0.1282851481923951</v>
+      </c>
+      <c r="I13">
+        <v>-0.136580983419474</v>
+      </c>
+      <c r="J13">
+        <v>0.1727046684197346</v>
+      </c>
+      <c r="K13">
+        <v>-0.1261274115977807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.007233051073653521</v>
+        <v>0.02099606275055797</v>
       </c>
       <c r="C14">
-        <v>-0.07203736928878642</v>
+        <v>0.07275235827368171</v>
       </c>
       <c r="D14">
-        <v>0.04310000813317828</v>
+        <v>0.04829506297204848</v>
       </c>
       <c r="E14">
-        <v>0.0302349758195279</v>
+        <v>-0.01484640484614891</v>
       </c>
       <c r="F14">
-        <v>0.02512904225019787</v>
+        <v>-0.04734078712709179</v>
       </c>
       <c r="G14">
-        <v>0.08339765691325519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03120056394901177</v>
+      </c>
+      <c r="H14">
+        <v>0.10150312884284</v>
+      </c>
+      <c r="I14">
+        <v>-0.1862953537249401</v>
+      </c>
+      <c r="J14">
+        <v>0.005916829420146572</v>
+      </c>
+      <c r="K14">
+        <v>0.02242771219867179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.005245801398693102</v>
+        <v>0.004658450872828616</v>
       </c>
       <c r="C15">
-        <v>-0.06684838825241507</v>
+        <v>0.06899161027649532</v>
       </c>
       <c r="D15">
-        <v>0.03085440989125252</v>
+        <v>0.03028656187731196</v>
       </c>
       <c r="E15">
-        <v>0.04358640116270088</v>
+        <v>0.03012874890295121</v>
       </c>
       <c r="F15">
-        <v>-0.02657608006748708</v>
+        <v>-0.02565806191063704</v>
       </c>
       <c r="G15">
-        <v>0.01507001300571372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.008932236612045636</v>
+      </c>
+      <c r="H15">
+        <v>0.02327047558523598</v>
+      </c>
+      <c r="I15">
+        <v>-0.07316884382187169</v>
+      </c>
+      <c r="J15">
+        <v>-0.002469267599128938</v>
+      </c>
+      <c r="K15">
+        <v>0.02919721141245746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007515728241336696</v>
+        <v>0.01611992752999523</v>
       </c>
       <c r="C16">
-        <v>-0.05879659102566229</v>
+        <v>0.06046877857813143</v>
       </c>
       <c r="D16">
-        <v>0.02967778226442579</v>
+        <v>0.02718691369829117</v>
       </c>
       <c r="E16">
-        <v>-0.01364598943365062</v>
+        <v>-0.002563082974316946</v>
       </c>
       <c r="F16">
-        <v>0.004379811568612557</v>
+        <v>0.007309650160213808</v>
       </c>
       <c r="G16">
-        <v>0.02962552393254415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.002429713483166215</v>
+      </c>
+      <c r="H16">
+        <v>0.008034915716242345</v>
+      </c>
+      <c r="I16">
+        <v>-0.02580352905616667</v>
+      </c>
+      <c r="J16">
+        <v>-0.0002012695062048205</v>
+      </c>
+      <c r="K16">
+        <v>0.02014776973738116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.009313568629678798</v>
+        <v>0.01601141611591816</v>
       </c>
       <c r="C20">
-        <v>-0.08874326377441466</v>
+        <v>0.08283334692524535</v>
       </c>
       <c r="D20">
-        <v>0.0421008662985742</v>
+        <v>0.02702292602297391</v>
       </c>
       <c r="E20">
-        <v>-0.03097730634149755</v>
+        <v>0.02769818847973381</v>
       </c>
       <c r="F20">
-        <v>-0.006271334686822816</v>
+        <v>0.006666955347298709</v>
       </c>
       <c r="G20">
-        <v>0.09951869937940676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01489474412177236</v>
+      </c>
+      <c r="H20">
+        <v>0.04184950845949535</v>
+      </c>
+      <c r="I20">
+        <v>-0.07166735095308581</v>
+      </c>
+      <c r="J20">
+        <v>-0.009913207107807713</v>
+      </c>
+      <c r="K20">
+        <v>0.01459930830544722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002389034228304294</v>
+        <v>0.01351038660398123</v>
       </c>
       <c r="C21">
-        <v>-0.08764433617575458</v>
+        <v>0.06919298944806523</v>
       </c>
       <c r="D21">
-        <v>-0.01167706337149634</v>
+        <v>0.01909730578995113</v>
       </c>
       <c r="E21">
-        <v>0.03933662074464036</v>
+        <v>-0.04048574595020185</v>
       </c>
       <c r="F21">
-        <v>0.06791946454656557</v>
+        <v>-0.08861516510469729</v>
       </c>
       <c r="G21">
-        <v>0.03018241262929219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0333826452041486</v>
+      </c>
+      <c r="H21">
+        <v>0.02575296974282007</v>
+      </c>
+      <c r="I21">
+        <v>-0.1366310989881039</v>
+      </c>
+      <c r="J21">
+        <v>0.04095496199984767</v>
+      </c>
+      <c r="K21">
+        <v>0.003129330054019681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01038291156424268</v>
+        <v>0.006800742442402435</v>
       </c>
       <c r="C22">
-        <v>-0.2440555874297113</v>
+        <v>0.1732326646235541</v>
       </c>
       <c r="D22">
-        <v>-0.07431535003277016</v>
+        <v>0.02036214008183085</v>
       </c>
       <c r="E22">
-        <v>0.3134808248380451</v>
+        <v>0.2239700024862689</v>
       </c>
       <c r="F22">
-        <v>-0.3085348542578499</v>
+        <v>-0.2681317658214633</v>
       </c>
       <c r="G22">
-        <v>-0.06514333871562318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3939520261487977</v>
+      </c>
+      <c r="H22">
+        <v>-0.002065403269520634</v>
+      </c>
+      <c r="I22">
+        <v>0.3331554488133318</v>
+      </c>
+      <c r="J22">
+        <v>0.05320284729220424</v>
+      </c>
+      <c r="K22">
+        <v>0.01788995900584427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0113119528568982</v>
+        <v>0.0119681421201132</v>
       </c>
       <c r="C23">
-        <v>-0.2482148799172361</v>
+        <v>0.1766361744707532</v>
       </c>
       <c r="D23">
-        <v>-0.07886782080563526</v>
+        <v>0.02001447930635758</v>
       </c>
       <c r="E23">
-        <v>0.3083135505368691</v>
+        <v>0.2145375779484266</v>
       </c>
       <c r="F23">
-        <v>-0.3036700837344117</v>
+        <v>-0.2601209713875637</v>
       </c>
       <c r="G23">
-        <v>-0.06502674068700957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3856365903935725</v>
+      </c>
+      <c r="H23">
+        <v>-0.0008111662906833479</v>
+      </c>
+      <c r="I23">
+        <v>0.3091130909640634</v>
+      </c>
+      <c r="J23">
+        <v>0.04944203187002438</v>
+      </c>
+      <c r="K23">
+        <v>0.02304881418594452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.002227294809287616</v>
+        <v>0.01681657608439973</v>
       </c>
       <c r="C24">
-        <v>-0.05652548870242602</v>
+        <v>0.06311743518408815</v>
       </c>
       <c r="D24">
-        <v>0.04369935317095237</v>
+        <v>0.04035025934664387</v>
       </c>
       <c r="E24">
-        <v>-0.0140243402729817</v>
+        <v>7.69337326470569e-05</v>
       </c>
       <c r="F24">
-        <v>-0.007922122123899327</v>
+        <v>0.007444803526881264</v>
       </c>
       <c r="G24">
-        <v>0.05651528190473685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.00254883597294892</v>
+      </c>
+      <c r="H24">
+        <v>0.02391126753243717</v>
+      </c>
+      <c r="I24">
+        <v>-0.04484646185452033</v>
+      </c>
+      <c r="J24">
+        <v>0.004524273404186886</v>
+      </c>
+      <c r="K24">
+        <v>0.02631915605335965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.003243184859923274</v>
+        <v>0.02098457778501019</v>
       </c>
       <c r="C25">
-        <v>-0.06410674910216584</v>
+        <v>0.06560864038858495</v>
       </c>
       <c r="D25">
-        <v>0.02309969363916063</v>
+        <v>0.0327174684397725</v>
       </c>
       <c r="E25">
-        <v>-0.02072233277581425</v>
+        <v>-0.0001324439774710118</v>
       </c>
       <c r="F25">
-        <v>-0.001669840034236203</v>
+        <v>0.007246189317181956</v>
       </c>
       <c r="G25">
-        <v>0.05035633816350962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006673330809634375</v>
+      </c>
+      <c r="H25">
+        <v>0.0159218684397148</v>
+      </c>
+      <c r="I25">
+        <v>-0.04055114174752472</v>
+      </c>
+      <c r="J25">
+        <v>0.004655346845145933</v>
+      </c>
+      <c r="K25">
+        <v>0.01291894701861815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005387052003498066</v>
+        <v>0.02313495257834261</v>
       </c>
       <c r="C26">
-        <v>-0.05136246535643692</v>
+        <v>0.05512675528346067</v>
       </c>
       <c r="D26">
-        <v>0.07821109114222792</v>
+        <v>0.06281916667334153</v>
       </c>
       <c r="E26">
-        <v>-0.0007960855022031158</v>
+        <v>-0.0004896748887958549</v>
       </c>
       <c r="F26">
-        <v>0.0249264258818973</v>
+        <v>0.01193285151738912</v>
       </c>
       <c r="G26">
-        <v>0.07296187553256002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0001042691159304354</v>
+      </c>
+      <c r="H26">
+        <v>-5.193172135888903e-05</v>
+      </c>
+      <c r="I26">
+        <v>-0.1175020277214585</v>
+      </c>
+      <c r="J26">
+        <v>0.0325321521548182</v>
+      </c>
+      <c r="K26">
+        <v>0.05787732536586636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3668653808069658</v>
+        <v>0.3101690082187684</v>
       </c>
       <c r="C28">
-        <v>0.08071754240953059</v>
+        <v>-0.1144449684555924</v>
       </c>
       <c r="D28">
-        <v>-0.01567882700114281</v>
+        <v>-0.03254670459215999</v>
       </c>
       <c r="E28">
-        <v>-0.04979122864810684</v>
+        <v>0.0231611156258978</v>
       </c>
       <c r="F28">
-        <v>0.0635754841726891</v>
+        <v>-0.05229832184820481</v>
       </c>
       <c r="G28">
-        <v>-0.08801572336349739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02016741648980663</v>
+      </c>
+      <c r="H28">
+        <v>-0.109200649792062</v>
+      </c>
+      <c r="I28">
+        <v>-0.06743780633682965</v>
+      </c>
+      <c r="J28">
+        <v>0.0312930043434205</v>
+      </c>
+      <c r="K28">
+        <v>-0.2096884177653201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.007451559217809747</v>
+        <v>0.01747399223122257</v>
       </c>
       <c r="C29">
-        <v>-0.07887038636009019</v>
+        <v>0.08274365072891099</v>
       </c>
       <c r="D29">
-        <v>0.04860952135759668</v>
+        <v>0.04989333172527873</v>
       </c>
       <c r="E29">
-        <v>0.01170352689747132</v>
+        <v>-0.02526045200027468</v>
       </c>
       <c r="F29">
-        <v>0.02640797312966755</v>
+        <v>-0.04346657089770687</v>
       </c>
       <c r="G29">
-        <v>0.1204328383877668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02373412399841526</v>
+      </c>
+      <c r="H29">
+        <v>0.1518300843004236</v>
+      </c>
+      <c r="I29">
+        <v>-0.2642252355633248</v>
+      </c>
+      <c r="J29">
+        <v>0.000214334990637981</v>
+      </c>
+      <c r="K29">
+        <v>0.01026046923595685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01913524915064171</v>
+        <v>0.03406782383439466</v>
       </c>
       <c r="C30">
-        <v>-0.1697226966257375</v>
+        <v>0.1431451464760896</v>
       </c>
       <c r="D30">
-        <v>0.07124964759193596</v>
+        <v>0.05566149037046311</v>
       </c>
       <c r="E30">
-        <v>0.0288781090390125</v>
+        <v>0.04033388563899686</v>
       </c>
       <c r="F30">
-        <v>-0.05387715563499983</v>
+        <v>-0.03868523897788052</v>
       </c>
       <c r="G30">
-        <v>0.025120982621848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02499613239365209</v>
+      </c>
+      <c r="H30">
+        <v>0.01507073759449845</v>
+      </c>
+      <c r="I30">
+        <v>-0.03385319464905503</v>
+      </c>
+      <c r="J30">
+        <v>-0.02131242539789405</v>
+      </c>
+      <c r="K30">
+        <v>0.04431426229397432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003109627315782479</v>
+        <v>0.01552571145920992</v>
       </c>
       <c r="C31">
-        <v>-0.05068485758454726</v>
+        <v>0.07698150055310007</v>
       </c>
       <c r="D31">
-        <v>0.03427996701436512</v>
+        <v>0.04136857379896808</v>
       </c>
       <c r="E31">
-        <v>-0.01550118828155741</v>
+        <v>0.000242772968079904</v>
       </c>
       <c r="F31">
-        <v>0.01052191094251717</v>
+        <v>-0.003499033145004395</v>
       </c>
       <c r="G31">
-        <v>0.0152749919429916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.006241204850019087</v>
+      </c>
+      <c r="H31">
+        <v>-0.02296715483921589</v>
+      </c>
+      <c r="I31">
+        <v>-0.04156590085897872</v>
+      </c>
+      <c r="J31">
+        <v>-0.008498549248980988</v>
+      </c>
+      <c r="K31">
+        <v>0.009344621785330172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01678683099634324</v>
+        <v>0.02225649526439848</v>
       </c>
       <c r="C32">
-        <v>-0.07490640427583443</v>
+        <v>0.05023628248110416</v>
       </c>
       <c r="D32">
-        <v>0.005728861268688547</v>
+        <v>0.02380133895626985</v>
       </c>
       <c r="E32">
-        <v>0.1477837512323912</v>
+        <v>-0.01824133297812247</v>
       </c>
       <c r="F32">
-        <v>-0.006720940332844557</v>
+        <v>-0.1012037929009224</v>
       </c>
       <c r="G32">
-        <v>0.08869217427147932</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05270294552447301</v>
+      </c>
+      <c r="H32">
+        <v>0.0870838458308317</v>
+      </c>
+      <c r="I32">
+        <v>-0.162138507823075</v>
+      </c>
+      <c r="J32">
+        <v>0.06286426987015625</v>
+      </c>
+      <c r="K32">
+        <v>-0.2536292994160412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.008149940253986965</v>
+        <v>0.01766460307680822</v>
       </c>
       <c r="C33">
-        <v>-0.09071490302557451</v>
+        <v>0.1020946891897403</v>
       </c>
       <c r="D33">
-        <v>0.06542176554890293</v>
+        <v>0.05260593491554575</v>
       </c>
       <c r="E33">
-        <v>0.009374131608275198</v>
+        <v>0.01739730292310747</v>
       </c>
       <c r="F33">
-        <v>0.009935974054787787</v>
+        <v>-0.01381143350010841</v>
       </c>
       <c r="G33">
-        <v>0.04622709129252975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01007863011455061</v>
+      </c>
+      <c r="H33">
+        <v>0.02819884334992059</v>
+      </c>
+      <c r="I33">
+        <v>-0.05987010391509538</v>
+      </c>
+      <c r="J33">
+        <v>0.01154433833753173</v>
+      </c>
+      <c r="K33">
+        <v>-0.0190987505050105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.00322158639473742</v>
+        <v>0.018241416224302</v>
       </c>
       <c r="C34">
-        <v>-0.05122954691983535</v>
+        <v>0.04942888588342168</v>
       </c>
       <c r="D34">
-        <v>0.02509147905753056</v>
+        <v>0.02137685923741499</v>
       </c>
       <c r="E34">
-        <v>-0.001873237335396178</v>
+        <v>-0.002956260517797981</v>
       </c>
       <c r="F34">
-        <v>0.01800780456471264</v>
+        <v>-7.043972329514709e-05</v>
       </c>
       <c r="G34">
-        <v>0.04621114800993808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00921750386569747</v>
+      </c>
+      <c r="H34">
+        <v>0.01967539655297653</v>
+      </c>
+      <c r="I34">
+        <v>-0.003472455662455927</v>
+      </c>
+      <c r="J34">
+        <v>-0.0160077927697957</v>
+      </c>
+      <c r="K34">
+        <v>0.01124989896002584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002039170196914055</v>
+        <v>0.0106613373447748</v>
       </c>
       <c r="C35">
-        <v>-0.02823318622190769</v>
+        <v>0.04533196617739255</v>
       </c>
       <c r="D35">
-        <v>0.00850602104117582</v>
+        <v>0.02180802582799578</v>
       </c>
       <c r="E35">
-        <v>0.004110431878880702</v>
+        <v>0.002471189450932259</v>
       </c>
       <c r="F35">
-        <v>0.006796079111192093</v>
+        <v>-0.02174507011066548</v>
       </c>
       <c r="G35">
-        <v>0.04151853776212303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01135021194623009</v>
+      </c>
+      <c r="H35">
+        <v>0.06492530245891291</v>
+      </c>
+      <c r="I35">
+        <v>-0.1432618183387931</v>
+      </c>
+      <c r="J35">
+        <v>-0.02509752892412334</v>
+      </c>
+      <c r="K35">
+        <v>-0.012880681522137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.00733228493478705</v>
+        <v>0.01432930675904815</v>
       </c>
       <c r="C36">
-        <v>-0.05371541096202135</v>
+        <v>0.04560816816409061</v>
       </c>
       <c r="D36">
-        <v>0.06077716077611412</v>
+        <v>0.04434075077429285</v>
       </c>
       <c r="E36">
-        <v>-0.006519401295659731</v>
+        <v>0.01071824355294147</v>
       </c>
       <c r="F36">
-        <v>0.009266990041333733</v>
+        <v>-0.01253395233672431</v>
       </c>
       <c r="G36">
-        <v>0.04888733750828978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.005210124213906056</v>
+      </c>
+      <c r="H36">
+        <v>0.001500203723073324</v>
+      </c>
+      <c r="I36">
+        <v>-0.08719470596419913</v>
+      </c>
+      <c r="J36">
+        <v>0.02500192961894621</v>
+      </c>
+      <c r="K36">
+        <v>0.01733361267448789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02820426237654267</v>
+        <v>0.01000515793025381</v>
       </c>
       <c r="C38">
-        <v>-0.05188901135719881</v>
+        <v>0.05763285220305237</v>
       </c>
       <c r="D38">
-        <v>0.04103881008318552</v>
+        <v>0.03839517073675248</v>
       </c>
       <c r="E38">
-        <v>-0.01568536500878782</v>
+        <v>0.05207860149476993</v>
       </c>
       <c r="F38">
-        <v>0.008084310549399376</v>
+        <v>-0.01416599676604151</v>
       </c>
       <c r="G38">
-        <v>0.04005645864809253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01170750355547195</v>
+      </c>
+      <c r="H38">
+        <v>0.01942776154047464</v>
+      </c>
+      <c r="I38">
+        <v>-0.07141199807984877</v>
+      </c>
+      <c r="J38">
+        <v>0.01752635345265342</v>
+      </c>
+      <c r="K38">
+        <v>-0.06407805538698677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.001944764715163042</v>
+        <v>0.0244886097739987</v>
       </c>
       <c r="C39">
-        <v>-0.1257623744770638</v>
+        <v>0.1326525839724791</v>
       </c>
       <c r="D39">
-        <v>0.06020122707736783</v>
+        <v>0.06034767561012844</v>
       </c>
       <c r="E39">
-        <v>-0.01154138958710509</v>
+        <v>-0.0001905200210019344</v>
       </c>
       <c r="F39">
-        <v>0.009378860116865315</v>
+        <v>-0.009261405199665979</v>
       </c>
       <c r="G39">
-        <v>0.07532315974046783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0292741123771969</v>
+      </c>
+      <c r="H39">
+        <v>0.04234199286732111</v>
+      </c>
+      <c r="I39">
+        <v>-0.03541477121197938</v>
+      </c>
+      <c r="J39">
+        <v>-0.02313766854622846</v>
+      </c>
+      <c r="K39">
+        <v>0.09275687183858351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002870257700536209</v>
+        <v>0.01459464486956819</v>
       </c>
       <c r="C40">
-        <v>-0.03258936760221656</v>
+        <v>0.05772561927477291</v>
       </c>
       <c r="D40">
-        <v>0.02927990839268135</v>
+        <v>0.04433323794397678</v>
       </c>
       <c r="E40">
-        <v>0.1237544925398563</v>
+        <v>-0.01050504411982925</v>
       </c>
       <c r="F40">
-        <v>-0.0683796734696249</v>
+        <v>-0.04060095801976107</v>
       </c>
       <c r="G40">
-        <v>0.09906132907934616</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.004823045336544319</v>
+      </c>
+      <c r="H40">
+        <v>0.153951275874193</v>
+      </c>
+      <c r="I40">
+        <v>-0.02377342211775592</v>
+      </c>
+      <c r="J40">
+        <v>0.0212733595560441</v>
+      </c>
+      <c r="K40">
+        <v>0.04266608403182009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01096622237184912</v>
+        <v>0.02213457497634463</v>
       </c>
       <c r="C41">
-        <v>-0.02387405309117042</v>
+        <v>0.04695748950616181</v>
       </c>
       <c r="D41">
-        <v>0.00447178011388896</v>
+        <v>0.01499799604647815</v>
       </c>
       <c r="E41">
-        <v>-0.002696911877705716</v>
+        <v>-0.007248455010995716</v>
       </c>
       <c r="F41">
-        <v>0.01558764346634614</v>
+        <v>0.01097208808646697</v>
       </c>
       <c r="G41">
-        <v>-0.0420146468486059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.009725742411515758</v>
+      </c>
+      <c r="H41">
+        <v>-0.006045796223227082</v>
+      </c>
+      <c r="I41">
+        <v>-0.02657821340050858</v>
+      </c>
+      <c r="J41">
+        <v>0.01350436637203859</v>
+      </c>
+      <c r="K41">
+        <v>-0.02797653943063122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004542809824809935</v>
+        <v>0.01917090440473177</v>
       </c>
       <c r="C43">
-        <v>-0.02261769972662797</v>
+        <v>0.04369032752969711</v>
       </c>
       <c r="D43">
-        <v>0.02290252230639964</v>
+        <v>0.02925388213762385</v>
       </c>
       <c r="E43">
-        <v>-0.004608938003542687</v>
+        <v>0.007935675151582982</v>
       </c>
       <c r="F43">
-        <v>-2.788805589231773e-05</v>
+        <v>0.009945294497419802</v>
       </c>
       <c r="G43">
-        <v>-0.002901251705904771</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008040072749414765</v>
+      </c>
+      <c r="H43">
+        <v>0.006678611724767652</v>
+      </c>
+      <c r="I43">
+        <v>-0.03714952549817727</v>
+      </c>
+      <c r="J43">
+        <v>0.01015957730755617</v>
+      </c>
+      <c r="K43">
+        <v>0.002367468798108575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01932078079788812</v>
+        <v>0.01629972114786948</v>
       </c>
       <c r="C44">
-        <v>-0.1014891510043231</v>
+        <v>0.09698027075835836</v>
       </c>
       <c r="D44">
-        <v>0.03683323685396892</v>
+        <v>0.05799718835049877</v>
       </c>
       <c r="E44">
-        <v>0.02788569429381096</v>
+        <v>0.05249296298192745</v>
       </c>
       <c r="F44">
-        <v>-0.02946580875105438</v>
+        <v>-0.03297384140774607</v>
       </c>
       <c r="G44">
-        <v>0.07418586448243206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0365712719071721</v>
+      </c>
+      <c r="H44">
+        <v>0.05262229786336678</v>
+      </c>
+      <c r="I44">
+        <v>-0.0490819612471876</v>
+      </c>
+      <c r="J44">
+        <v>0.01218422819058174</v>
+      </c>
+      <c r="K44">
+        <v>0.05185257296032627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005811530058345971</v>
+        <v>0.004855724483311541</v>
       </c>
       <c r="C46">
-        <v>-0.05828097856351055</v>
+        <v>0.0637798277906865</v>
       </c>
       <c r="D46">
-        <v>0.0471347142964969</v>
+        <v>0.02857157499212807</v>
       </c>
       <c r="E46">
-        <v>0.01716014461284146</v>
+        <v>-0.0003959327786958509</v>
       </c>
       <c r="F46">
-        <v>0.007760282124645025</v>
+        <v>-0.008136326455665855</v>
       </c>
       <c r="G46">
-        <v>0.05686276765407522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01414772302489912</v>
+      </c>
+      <c r="H46">
+        <v>0.04466528266758513</v>
+      </c>
+      <c r="I46">
+        <v>-0.09492787448965841</v>
+      </c>
+      <c r="J46">
+        <v>0.0318447156425806</v>
+      </c>
+      <c r="K46">
+        <v>0.01777970900308956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005318021948706848</v>
+        <v>0.02254059798024659</v>
       </c>
       <c r="C47">
-        <v>-0.05790027373157397</v>
+        <v>0.07263856154846535</v>
       </c>
       <c r="D47">
-        <v>0.05693689783063684</v>
+        <v>0.04316194695712267</v>
       </c>
       <c r="E47">
-        <v>-0.02028420414152612</v>
+        <v>-0.007993577477123918</v>
       </c>
       <c r="F47">
-        <v>0.05054066848995582</v>
+        <v>0.007635524633582606</v>
       </c>
       <c r="G47">
-        <v>0.03093109432646779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.00625453856148161</v>
+      </c>
+      <c r="H47">
+        <v>0.009605169811853815</v>
+      </c>
+      <c r="I47">
+        <v>-0.07348370222026071</v>
+      </c>
+      <c r="J47">
+        <v>0.01531997310539386</v>
+      </c>
+      <c r="K47">
+        <v>-0.01555017341498921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.00842031778961257</v>
+        <v>0.01737600366317315</v>
       </c>
       <c r="C48">
-        <v>-0.05888860590079328</v>
+        <v>0.04393647415745935</v>
       </c>
       <c r="D48">
-        <v>0.06853554447888033</v>
+        <v>0.05280928255474886</v>
       </c>
       <c r="E48">
-        <v>-0.006894641370223917</v>
+        <v>0.006528056748771099</v>
       </c>
       <c r="F48">
-        <v>-0.002580608283196174</v>
+        <v>0.001481940358420982</v>
       </c>
       <c r="G48">
-        <v>0.06652101458167874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01948302696176969</v>
+      </c>
+      <c r="H48">
+        <v>0.002332212694252148</v>
+      </c>
+      <c r="I48">
+        <v>-0.1195846891066912</v>
+      </c>
+      <c r="J48">
+        <v>0.02584818518423085</v>
+      </c>
+      <c r="K48">
+        <v>0.036344448767622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02082983012679697</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0477128959769719</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008960644400587144</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.0153598760688323</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.04773778863138243</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.06170833780143498</v>
+      </c>
+      <c r="H49">
+        <v>0.05312665968511338</v>
+      </c>
+      <c r="I49">
+        <v>0.06482124863749644</v>
+      </c>
+      <c r="J49">
+        <v>-0.08556020329579432</v>
+      </c>
+      <c r="K49">
+        <v>0.05053467425884919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0004043805555917329</v>
+        <v>0.0158679917653756</v>
       </c>
       <c r="C50">
-        <v>-0.06473364054262538</v>
+        <v>0.07595285579721997</v>
       </c>
       <c r="D50">
-        <v>0.0312573647958573</v>
+        <v>0.03196265052356986</v>
       </c>
       <c r="E50">
-        <v>-0.006058967878623429</v>
+        <v>0.01684724731622169</v>
       </c>
       <c r="F50">
-        <v>-0.006003174916160112</v>
+        <v>-0.007903839660034028</v>
       </c>
       <c r="G50">
-        <v>0.02869218160843379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008464429536084219</v>
+      </c>
+      <c r="H50">
+        <v>-0.003668310429797192</v>
+      </c>
+      <c r="I50">
+        <v>-0.06418080362488804</v>
+      </c>
+      <c r="J50">
+        <v>-0.008960993805301238</v>
+      </c>
+      <c r="K50">
+        <v>-0.05032092419772161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.00141215096426077</v>
+        <v>-0.004438209164361206</v>
       </c>
       <c r="C51">
-        <v>-0.0701040894557334</v>
+        <v>0.035745001722054</v>
       </c>
       <c r="D51">
-        <v>0.04313325538078926</v>
+        <v>0.02632708478398386</v>
       </c>
       <c r="E51">
-        <v>0.03546007626151773</v>
+        <v>0.01416012020983346</v>
       </c>
       <c r="F51">
-        <v>-6.229203118059041e-05</v>
+        <v>-0.03457695437955316</v>
       </c>
       <c r="G51">
-        <v>0.002343592829603305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.001746550829662681</v>
+      </c>
+      <c r="H51">
+        <v>0.02812820958472726</v>
+      </c>
+      <c r="I51">
+        <v>-0.1001682230699743</v>
+      </c>
+      <c r="J51">
+        <v>0.04328541878749609</v>
+      </c>
+      <c r="K51">
+        <v>0.03665890434127644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.0295360807282212</v>
+        <v>0.06054675103280745</v>
       </c>
       <c r="C53">
-        <v>-0.1203524216843438</v>
+        <v>0.1315226078767128</v>
       </c>
       <c r="D53">
-        <v>0.07165104862979171</v>
+        <v>0.05818489578733955</v>
       </c>
       <c r="E53">
-        <v>-0.1243365982001889</v>
+        <v>-0.05168633337111264</v>
       </c>
       <c r="F53">
-        <v>0.05249535857477479</v>
+        <v>0.04761046064311249</v>
       </c>
       <c r="G53">
-        <v>-0.07375761140929857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02206547030778985</v>
+      </c>
+      <c r="H53">
+        <v>-0.09128344434153281</v>
+      </c>
+      <c r="I53">
+        <v>0.01063317813745649</v>
+      </c>
+      <c r="J53">
+        <v>-0.004208252889841653</v>
+      </c>
+      <c r="K53">
+        <v>-0.01752228174169387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0005248134354741829</v>
+        <v>0.01650090046285042</v>
       </c>
       <c r="C54">
-        <v>-0.0683051422235658</v>
+        <v>0.06975585145479408</v>
       </c>
       <c r="D54">
-        <v>0.0121930609881492</v>
+        <v>0.01263533162599177</v>
       </c>
       <c r="E54">
-        <v>-0.01963768614832147</v>
+        <v>-0.009001702335741379</v>
       </c>
       <c r="F54">
-        <v>-0.0007138104112068086</v>
+        <v>0.008535335285033604</v>
       </c>
       <c r="G54">
-        <v>0.03156050222521996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.00594830378976083</v>
+      </c>
+      <c r="H54">
+        <v>0.02015208179638743</v>
+      </c>
+      <c r="I54">
+        <v>-0.06511078993205542</v>
+      </c>
+      <c r="J54">
+        <v>0.002591341710732996</v>
+      </c>
+      <c r="K54">
+        <v>0.02550769398283791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01265750691558454</v>
+        <v>0.0307043359752424</v>
       </c>
       <c r="C55">
-        <v>-0.08250279126483068</v>
+        <v>0.08311849888975524</v>
       </c>
       <c r="D55">
-        <v>0.06585114054572133</v>
+        <v>0.05401230554374491</v>
       </c>
       <c r="E55">
-        <v>-0.05578183859424162</v>
+        <v>-0.03541719635459434</v>
       </c>
       <c r="F55">
-        <v>0.03840405088994587</v>
+        <v>0.03878030593867442</v>
       </c>
       <c r="G55">
-        <v>-0.009214410191122062</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.007443596728049222</v>
+      </c>
+      <c r="H55">
+        <v>-0.03977654417771259</v>
+      </c>
+      <c r="I55">
+        <v>-0.002617630609734801</v>
+      </c>
+      <c r="J55">
+        <v>0.001597119239462046</v>
+      </c>
+      <c r="K55">
+        <v>0.01190198804246565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01191254008015054</v>
+        <v>0.04856532065993558</v>
       </c>
       <c r="C56">
-        <v>-0.1487887803738701</v>
+        <v>0.154011009881084</v>
       </c>
       <c r="D56">
-        <v>0.07648190702000225</v>
+        <v>0.0818034043723157</v>
       </c>
       <c r="E56">
-        <v>-0.09139308407142768</v>
+        <v>-0.09477882172905532</v>
       </c>
       <c r="F56">
-        <v>0.07926458126648779</v>
+        <v>0.05219413926045698</v>
       </c>
       <c r="G56">
-        <v>-0.1133070730501649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.03740440359831744</v>
+      </c>
+      <c r="H56">
+        <v>-0.1660795384303668</v>
+      </c>
+      <c r="I56">
+        <v>0.01892617319888001</v>
+      </c>
+      <c r="J56">
+        <v>-0.01770294814795747</v>
+      </c>
+      <c r="K56">
+        <v>-0.001808914447020128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02211380810808554</v>
+        <v>0.01808448196406581</v>
       </c>
       <c r="C58">
-        <v>-0.2913678288783681</v>
+        <v>0.1747769147936625</v>
       </c>
       <c r="D58">
-        <v>-0.005311291546534249</v>
+        <v>0.04441633825718104</v>
       </c>
       <c r="E58">
-        <v>0.1500596037286386</v>
+        <v>0.1592131173507259</v>
       </c>
       <c r="F58">
-        <v>-0.2486289391069934</v>
+        <v>-0.2041580065819118</v>
       </c>
       <c r="G58">
-        <v>-0.06035676659926448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.197936482895587</v>
+      </c>
+      <c r="H58">
+        <v>-0.06384719172677009</v>
+      </c>
+      <c r="I58">
+        <v>-0.08581246432547601</v>
+      </c>
+      <c r="J58">
+        <v>0.06173272568418262</v>
+      </c>
+      <c r="K58">
+        <v>-0.08566992922489239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2883517139093675</v>
+        <v>0.2882611588279606</v>
       </c>
       <c r="C59">
-        <v>-0.005121998551139352</v>
+        <v>-0.0531002873717574</v>
       </c>
       <c r="D59">
-        <v>-0.003782423449165135</v>
+        <v>-0.005995771908016737</v>
       </c>
       <c r="E59">
-        <v>0.0552598067517241</v>
+        <v>0.002843473351732614</v>
       </c>
       <c r="F59">
-        <v>0.04962823148440178</v>
+        <v>-0.04356363160047427</v>
       </c>
       <c r="G59">
-        <v>-0.005376756244340859</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02968752869919105</v>
+      </c>
+      <c r="H59">
+        <v>-0.003919639294836384</v>
+      </c>
+      <c r="I59">
+        <v>0.02554519279410263</v>
+      </c>
+      <c r="J59">
+        <v>0.00885291084899255</v>
+      </c>
+      <c r="K59">
+        <v>-0.03649560943116914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1029419462487047</v>
+        <v>0.1529774399013965</v>
       </c>
       <c r="C60">
-        <v>-0.1449540921335274</v>
+        <v>0.1572125050013703</v>
       </c>
       <c r="D60">
-        <v>0.08174057588216468</v>
+        <v>0.03918161047131536</v>
       </c>
       <c r="E60">
-        <v>-0.1040947914930661</v>
+        <v>-0.1451624113417357</v>
       </c>
       <c r="F60">
-        <v>0.1739720388849519</v>
+        <v>0.1327008829200436</v>
       </c>
       <c r="G60">
-        <v>0.2719903129040342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.00603305765946883</v>
+      </c>
+      <c r="H60">
+        <v>0.2307290800701785</v>
+      </c>
+      <c r="I60">
+        <v>0.2350601800677282</v>
+      </c>
+      <c r="J60">
+        <v>0.02148151675191223</v>
+      </c>
+      <c r="K60">
+        <v>0.0194122259698182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.001525192813610179</v>
+        <v>0.0247054305384407</v>
       </c>
       <c r="C61">
-        <v>-0.07890259092109625</v>
+        <v>0.09809803811959251</v>
       </c>
       <c r="D61">
-        <v>0.06470795071362316</v>
+        <v>0.05471627555366178</v>
       </c>
       <c r="E61">
-        <v>-0.02476943540861151</v>
+        <v>-0.01303176853397473</v>
       </c>
       <c r="F61">
-        <v>0.02522006124031969</v>
+        <v>0.01438609233754783</v>
       </c>
       <c r="G61">
-        <v>0.07701054370849165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02006957643059229</v>
+      </c>
+      <c r="H61">
+        <v>0.03054078450640783</v>
+      </c>
+      <c r="I61">
+        <v>-0.05300218854884033</v>
+      </c>
+      <c r="J61">
+        <v>-0.03457483543396397</v>
+      </c>
+      <c r="K61">
+        <v>0.03593671691660989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00252708140282741</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01391347310717921</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003157122870071737</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.002044104104664785</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.007571582327391286</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03376313797659544</v>
+      </c>
+      <c r="H62">
+        <v>0.01883620542520303</v>
+      </c>
+      <c r="I62">
+        <v>-0.0184553980708029</v>
+      </c>
+      <c r="J62">
+        <v>-0.02118812419949068</v>
+      </c>
+      <c r="K62">
+        <v>-0.008881872120070248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003097847312445718</v>
+        <v>0.02702996605229821</v>
       </c>
       <c r="C63">
-        <v>-0.05796242023252167</v>
+        <v>0.06421423259056956</v>
       </c>
       <c r="D63">
-        <v>0.03985177908446592</v>
+        <v>0.05922210127829772</v>
       </c>
       <c r="E63">
-        <v>-0.02048183169000991</v>
+        <v>-0.008476157874055786</v>
       </c>
       <c r="F63">
-        <v>0.00250313991671485</v>
+        <v>0.004533082463880131</v>
       </c>
       <c r="G63">
-        <v>0.008449771686938548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002415023872411115</v>
+      </c>
+      <c r="H63">
+        <v>0.00336175944124302</v>
+      </c>
+      <c r="I63">
+        <v>-0.07060204833765492</v>
+      </c>
+      <c r="J63">
+        <v>-0.0171005472483217</v>
+      </c>
+      <c r="K63">
+        <v>0.01603825461661675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.004178982437874331</v>
+        <v>0.01860386563513357</v>
       </c>
       <c r="C64">
-        <v>-0.08114485856625953</v>
+        <v>0.09006412018855313</v>
       </c>
       <c r="D64">
-        <v>0.06848138407291823</v>
+        <v>0.03406667423167179</v>
       </c>
       <c r="E64">
-        <v>-0.005500420820698052</v>
+        <v>0.0179539005861284</v>
       </c>
       <c r="F64">
-        <v>-0.01540253172090284</v>
+        <v>0.008979276138563452</v>
       </c>
       <c r="G64">
-        <v>0.06211972881448041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04501399854726214</v>
+      </c>
+      <c r="H64">
+        <v>0.06543266775336799</v>
+      </c>
+      <c r="I64">
+        <v>-0.05034001992306617</v>
+      </c>
+      <c r="J64">
+        <v>-0.01297452738713139</v>
+      </c>
+      <c r="K64">
+        <v>0.08099443289473915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.001124256716036522</v>
+        <v>0.03241294172610752</v>
       </c>
       <c r="C65">
-        <v>-0.08654993796452209</v>
+        <v>0.09291617179536679</v>
       </c>
       <c r="D65">
-        <v>0.03473334455772927</v>
+        <v>0.02248842763955622</v>
       </c>
       <c r="E65">
-        <v>0.01717064504490013</v>
+        <v>0.01376030976325235</v>
       </c>
       <c r="F65">
-        <v>0.0008629169551150719</v>
+        <v>0.009991762990664408</v>
       </c>
       <c r="G65">
-        <v>0.06793111458023958</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0002943539724060388</v>
+      </c>
+      <c r="H65">
+        <v>0.08979526616234834</v>
+      </c>
+      <c r="I65">
+        <v>0.0109915735737604</v>
+      </c>
+      <c r="J65">
+        <v>-0.003988105661888154</v>
+      </c>
+      <c r="K65">
+        <v>0.06427485988227562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.004884869594034037</v>
+        <v>0.0219628294810777</v>
       </c>
       <c r="C66">
-        <v>-0.1687552233422643</v>
+        <v>0.1709863621962839</v>
       </c>
       <c r="D66">
-        <v>0.05180760435589687</v>
+        <v>0.05167294004264629</v>
       </c>
       <c r="E66">
-        <v>0.03382381649546427</v>
+        <v>-0.004254701914048455</v>
       </c>
       <c r="F66">
-        <v>0.02041383475730462</v>
+        <v>-0.02020472655603513</v>
       </c>
       <c r="G66">
-        <v>0.1024102176643506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01405090133795473</v>
+      </c>
+      <c r="H66">
+        <v>0.03758636915648494</v>
+      </c>
+      <c r="I66">
+        <v>-0.04894213631684233</v>
+      </c>
+      <c r="J66">
+        <v>-0.04169578370174255</v>
+      </c>
+      <c r="K66">
+        <v>0.0662091921549271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02757801828115571</v>
+        <v>0.01915628664638572</v>
       </c>
       <c r="C67">
-        <v>-0.02745432008414427</v>
+        <v>0.05010333922931071</v>
       </c>
       <c r="D67">
-        <v>0.05695647682507143</v>
+        <v>0.03967848159174363</v>
       </c>
       <c r="E67">
-        <v>-0.04714099639197887</v>
+        <v>0.0303744477025524</v>
       </c>
       <c r="F67">
-        <v>0.01982474928999864</v>
+        <v>0.01243860002018713</v>
       </c>
       <c r="G67">
-        <v>0.05007822638620733</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0291246330166856</v>
+      </c>
+      <c r="H67">
+        <v>0.04025652218271016</v>
+      </c>
+      <c r="I67">
+        <v>-0.04695884861815269</v>
+      </c>
+      <c r="J67">
+        <v>0.04102741449983163</v>
+      </c>
+      <c r="K67">
+        <v>-0.04575865900324463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2948072645393821</v>
+        <v>0.292658400580542</v>
       </c>
       <c r="C68">
-        <v>0.01496599330053181</v>
+        <v>-0.07623921511808748</v>
       </c>
       <c r="D68">
-        <v>0.00914150407394522</v>
+        <v>-0.023685278552502</v>
       </c>
       <c r="E68">
-        <v>0.02813275420619482</v>
+        <v>0.001969662211761366</v>
       </c>
       <c r="F68">
-        <v>0.001789171676600314</v>
+        <v>-0.02382663717160879</v>
       </c>
       <c r="G68">
-        <v>0.01342859127684286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04598500789988417</v>
+      </c>
+      <c r="H68">
+        <v>-0.02279711035915128</v>
+      </c>
+      <c r="I68">
+        <v>-0.04169830240280033</v>
+      </c>
+      <c r="J68">
+        <v>-0.001277339560473577</v>
+      </c>
+      <c r="K68">
+        <v>-0.04248409605107745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.005288596886959233</v>
+        <v>0.008875252583072755</v>
       </c>
       <c r="C69">
-        <v>-0.04914891711831867</v>
+        <v>0.04526342474072205</v>
       </c>
       <c r="D69">
-        <v>0.05500230134619281</v>
+        <v>0.02438170243708061</v>
       </c>
       <c r="E69">
-        <v>-0.03170011784475799</v>
+        <v>-0.008438714881934928</v>
       </c>
       <c r="F69">
-        <v>0.0007117500681737363</v>
+        <v>0.004523777473287418</v>
       </c>
       <c r="G69">
-        <v>0.02742782010092035</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.006534407191864517</v>
+      </c>
+      <c r="H69">
+        <v>0.02214745991581954</v>
+      </c>
+      <c r="I69">
+        <v>-0.03735379873425347</v>
+      </c>
+      <c r="J69">
+        <v>0.01562908533792051</v>
+      </c>
+      <c r="K69">
+        <v>-0.01756319367076733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2895601334757112</v>
+        <v>0.2746421920921793</v>
       </c>
       <c r="C71">
-        <v>0.0334609887049176</v>
+        <v>-0.07996694941860004</v>
       </c>
       <c r="D71">
-        <v>-0.007097217717792046</v>
+        <v>-0.02183556852662279</v>
       </c>
       <c r="E71">
-        <v>0.02627153914277506</v>
+        <v>0.04334482168364883</v>
       </c>
       <c r="F71">
-        <v>-0.01948136179320379</v>
+        <v>-0.04621846141799572</v>
       </c>
       <c r="G71">
-        <v>-0.0006440724917407816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03973248907814525</v>
+      </c>
+      <c r="H71">
+        <v>-0.02007825474988034</v>
+      </c>
+      <c r="I71">
+        <v>-0.05453695077199004</v>
+      </c>
+      <c r="J71">
+        <v>0.03158877610744242</v>
+      </c>
+      <c r="K71">
+        <v>-0.1095295096169246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.006583186492165449</v>
+        <v>0.05487217596329523</v>
       </c>
       <c r="C72">
-        <v>-0.1469295646028903</v>
+        <v>0.1368039909300478</v>
       </c>
       <c r="D72">
-        <v>0.06718733799231792</v>
+        <v>0.04744416501071146</v>
       </c>
       <c r="E72">
-        <v>-0.01608455837760087</v>
+        <v>-0.04804766930563679</v>
       </c>
       <c r="F72">
-        <v>-0.04785973187909608</v>
+        <v>0.03497791250604163</v>
       </c>
       <c r="G72">
-        <v>0.1221857798524667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01409614355077434</v>
+      </c>
+      <c r="H72">
+        <v>0.004015542917696768</v>
+      </c>
+      <c r="I72">
+        <v>-0.05564655138181594</v>
+      </c>
+      <c r="J72">
+        <v>-0.02181585924882582</v>
+      </c>
+      <c r="K72">
+        <v>0.1083662781927465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06119752535626605</v>
+        <v>0.1564249682057438</v>
       </c>
       <c r="C73">
-        <v>-0.0988575032466453</v>
+        <v>0.1973128703962157</v>
       </c>
       <c r="D73">
-        <v>0.1119322933190078</v>
+        <v>0.08293163905106314</v>
       </c>
       <c r="E73">
-        <v>-0.1884888021365962</v>
+        <v>-0.1468301110080487</v>
       </c>
       <c r="F73">
-        <v>0.1958856138302524</v>
+        <v>0.2198002712883983</v>
       </c>
       <c r="G73">
-        <v>0.3186685903688394</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.08858505283632476</v>
+      </c>
+      <c r="H73">
+        <v>0.3498226103760903</v>
+      </c>
+      <c r="I73">
+        <v>0.2937111629786041</v>
+      </c>
+      <c r="J73">
+        <v>0.03119817622273869</v>
+      </c>
+      <c r="K73">
+        <v>-0.1364388076706806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.008750700439251273</v>
+        <v>0.03878278492355507</v>
       </c>
       <c r="C74">
-        <v>-0.07970957291950818</v>
+        <v>0.09760411571913674</v>
       </c>
       <c r="D74">
-        <v>0.07279604153089676</v>
+        <v>0.04612125440706372</v>
       </c>
       <c r="E74">
-        <v>-0.06851454130327554</v>
+        <v>-0.023585913724851</v>
       </c>
       <c r="F74">
-        <v>0.04403815123759153</v>
+        <v>0.04450157729419282</v>
       </c>
       <c r="G74">
-        <v>-0.03995452589846986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01518396865226919</v>
+      </c>
+      <c r="H74">
+        <v>-0.05132378999913328</v>
+      </c>
+      <c r="I74">
+        <v>-0.02220967170525249</v>
+      </c>
+      <c r="J74">
+        <v>0.01150360164165136</v>
+      </c>
+      <c r="K74">
+        <v>0.01329936661717658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03630326945939703</v>
+        <v>0.06302597724061351</v>
       </c>
       <c r="C75">
-        <v>-0.1424042492128808</v>
+        <v>0.1634687607344306</v>
       </c>
       <c r="D75">
-        <v>0.08274594213630451</v>
+        <v>0.08367660068190208</v>
       </c>
       <c r="E75">
-        <v>-0.1471718382217245</v>
+        <v>-0.02520713823787415</v>
       </c>
       <c r="F75">
-        <v>0.04468308964356656</v>
+        <v>0.0994883411882556</v>
       </c>
       <c r="G75">
-        <v>-0.1751183746462399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.03608573201960206</v>
+      </c>
+      <c r="H75">
+        <v>-0.2189589399592533</v>
+      </c>
+      <c r="I75">
+        <v>-0.01612910224843455</v>
+      </c>
+      <c r="J75">
+        <v>-0.038958345449015</v>
+      </c>
+      <c r="K75">
+        <v>-0.1222946510853597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01339804274742518</v>
+        <v>0.04540006398724526</v>
       </c>
       <c r="C76">
-        <v>-0.1054645905064155</v>
+        <v>0.1260668282036635</v>
       </c>
       <c r="D76">
-        <v>0.06624077607982171</v>
+        <v>0.07493858746270288</v>
       </c>
       <c r="E76">
-        <v>-0.08399239349302269</v>
+        <v>-0.04233288301439953</v>
       </c>
       <c r="F76">
-        <v>0.05979393254534008</v>
+        <v>0.05245616105937741</v>
       </c>
       <c r="G76">
-        <v>-0.03743886361377401</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04640938172746813</v>
+      </c>
+      <c r="H76">
+        <v>-0.0811742814062906</v>
+      </c>
+      <c r="I76">
+        <v>0.007972820812685811</v>
+      </c>
+      <c r="J76">
+        <v>-0.03872442212989409</v>
+      </c>
+      <c r="K76">
+        <v>0.02819883334953353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09178839697381092</v>
+        <v>0.05782419255216302</v>
       </c>
       <c r="C77">
-        <v>-0.3875674077596595</v>
+        <v>0.4036659203644019</v>
       </c>
       <c r="D77">
-        <v>-0.8319788241108689</v>
+        <v>-0.8971742455589845</v>
       </c>
       <c r="E77">
-        <v>-0.2757631720499469</v>
+        <v>0.01179805730198556</v>
       </c>
       <c r="F77">
-        <v>0.1135984527247463</v>
+        <v>0.05447025625096841</v>
       </c>
       <c r="G77">
-        <v>0.02234460935704118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.05564482253952182</v>
+      </c>
+      <c r="H77">
+        <v>-0.03649931213656606</v>
+      </c>
+      <c r="I77">
+        <v>-0.06161492880156851</v>
+      </c>
+      <c r="J77">
+        <v>-0.05628636820064308</v>
+      </c>
+      <c r="K77">
+        <v>-0.02073872758099007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02431403782939763</v>
+        <v>0.03784604520741688</v>
       </c>
       <c r="C78">
-        <v>-0.1247645914976751</v>
+        <v>0.1130201226069946</v>
       </c>
       <c r="D78">
-        <v>0.1872240789243988</v>
+        <v>0.09591215639270813</v>
       </c>
       <c r="E78">
-        <v>0.08818698560166649</v>
+        <v>-0.01578853337804801</v>
       </c>
       <c r="F78">
-        <v>0.1377903221948898</v>
+        <v>-0.03956640018478667</v>
       </c>
       <c r="G78">
-        <v>-0.1261185299756862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.03857614263669024</v>
+      </c>
+      <c r="H78">
+        <v>-0.1145789148926835</v>
+      </c>
+      <c r="I78">
+        <v>-0.06564926543956183</v>
+      </c>
+      <c r="J78">
+        <v>0.06708949633438233</v>
+      </c>
+      <c r="K78">
+        <v>0.08221263842796653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02025745513817791</v>
+        <v>0.05692353419939345</v>
       </c>
       <c r="C79">
-        <v>-0.1629383757596011</v>
+        <v>0.1403029068669722</v>
       </c>
       <c r="D79">
-        <v>0.115762004869658</v>
+        <v>0.06835143341567165</v>
       </c>
       <c r="E79">
-        <v>-0.1101615707570162</v>
+        <v>-0.05452651718142405</v>
       </c>
       <c r="F79">
-        <v>0.08924340125695995</v>
+        <v>0.04356878564206049</v>
       </c>
       <c r="G79">
-        <v>-0.2720981907027356</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.01444357355686464</v>
+      </c>
+      <c r="H79">
+        <v>-0.2572425038402974</v>
+      </c>
+      <c r="I79">
+        <v>-0.05219382206724593</v>
+      </c>
+      <c r="J79">
+        <v>0.01940455065893311</v>
+      </c>
+      <c r="K79">
+        <v>-0.04917739477528953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007507115808952966</v>
+        <v>0.02011863484397074</v>
       </c>
       <c r="C80">
-        <v>-0.05319506698054002</v>
+        <v>0.04426429608544041</v>
       </c>
       <c r="D80">
-        <v>0.05043015132221681</v>
+        <v>0.03790255726581816</v>
       </c>
       <c r="E80">
-        <v>0.040269716851948</v>
+        <v>-0.01541347952565421</v>
       </c>
       <c r="F80">
-        <v>0.01274639238344784</v>
+        <v>-0.05935383995943311</v>
       </c>
       <c r="G80">
-        <v>0.005908942878582134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.009331990153847513</v>
+      </c>
+      <c r="H80">
+        <v>0.07503477525334951</v>
+      </c>
+      <c r="I80">
+        <v>0.04193005479706789</v>
+      </c>
+      <c r="J80">
+        <v>0.02257248663087558</v>
+      </c>
+      <c r="K80">
+        <v>-0.03743078279206755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0003925632067206898</v>
+        <v>0.01676063632338172</v>
       </c>
       <c r="C81">
-        <v>-0.07622296551111275</v>
+        <v>0.09622742020758115</v>
       </c>
       <c r="D81">
-        <v>0.07319969149096987</v>
+        <v>0.05686351294899475</v>
       </c>
       <c r="E81">
-        <v>-0.07894694362050574</v>
+        <v>-0.03133410520871217</v>
       </c>
       <c r="F81">
-        <v>0.05558451377422788</v>
+        <v>0.01713742496827011</v>
       </c>
       <c r="G81">
-        <v>-0.07878228110300656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01869129232776602</v>
+      </c>
+      <c r="H81">
+        <v>-0.1094244301637835</v>
+      </c>
+      <c r="I81">
+        <v>-0.06495191109653614</v>
+      </c>
+      <c r="J81">
+        <v>0.02825413988495442</v>
+      </c>
+      <c r="K81">
+        <v>-0.03487932823197893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01393970232442174</v>
+        <v>0.04591538872353135</v>
       </c>
       <c r="C82">
-        <v>-0.07766351658346765</v>
+        <v>0.1052394013528791</v>
       </c>
       <c r="D82">
-        <v>0.07342190355904424</v>
+        <v>0.06555202590908231</v>
       </c>
       <c r="E82">
-        <v>-0.09129370429902975</v>
+        <v>-0.037421509186937</v>
       </c>
       <c r="F82">
-        <v>0.04993513694658289</v>
+        <v>0.03314913761391571</v>
       </c>
       <c r="G82">
-        <v>-0.03418792970699669</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.0533192786499506</v>
+      </c>
+      <c r="H82">
+        <v>-0.08015141524568195</v>
+      </c>
+      <c r="I82">
+        <v>-0.0132124777956542</v>
+      </c>
+      <c r="J82">
+        <v>-0.02503044558481455</v>
+      </c>
+      <c r="K82">
+        <v>-0.002783669425508192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004050962399662995</v>
+        <v>-0.0009135030125869208</v>
       </c>
       <c r="C83">
-        <v>-0.02036927379131603</v>
+        <v>-0.02309386022464114</v>
       </c>
       <c r="D83">
-        <v>-0.1317390128515455</v>
+        <v>-0.05976259079510868</v>
       </c>
       <c r="E83">
-        <v>0.5943644833368217</v>
+        <v>-0.7055906736517275</v>
       </c>
       <c r="F83">
-        <v>0.6966028815086205</v>
+        <v>-0.6444855677831829</v>
       </c>
       <c r="G83">
-        <v>-0.09534003232584319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1105416211650921</v>
+      </c>
+      <c r="H83">
+        <v>-0.01533310331823592</v>
+      </c>
+      <c r="I83">
+        <v>0.09695869918102848</v>
+      </c>
+      <c r="J83">
+        <v>-0.0705318357868891</v>
+      </c>
+      <c r="K83">
+        <v>0.04538233631049783</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01274447854290031</v>
+        <v>0.01371819136471286</v>
       </c>
       <c r="C84">
-        <v>-0.08996376033612313</v>
+        <v>0.0645514684424444</v>
       </c>
       <c r="D84">
-        <v>0.03760144144508314</v>
+        <v>0.08876581767633071</v>
       </c>
       <c r="E84">
-        <v>0.06363767090178063</v>
+        <v>0.3330755231770488</v>
       </c>
       <c r="F84">
-        <v>-0.1427510237041017</v>
+        <v>-0.2678356700817779</v>
       </c>
       <c r="G84">
-        <v>-0.01354331181311001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.3028132010372345</v>
+      </c>
+      <c r="H84">
+        <v>0.08002717463506327</v>
+      </c>
+      <c r="I84">
+        <v>0.06100334731994533</v>
+      </c>
+      <c r="J84">
+        <v>-0.7767058136615221</v>
+      </c>
+      <c r="K84">
+        <v>-0.1457586563868553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.002704813031153637</v>
+        <v>0.03053741761536211</v>
       </c>
       <c r="C85">
-        <v>-0.112498418770111</v>
+        <v>0.1161785442328205</v>
       </c>
       <c r="D85">
-        <v>0.07998292449998828</v>
+        <v>0.08254893563717373</v>
       </c>
       <c r="E85">
-        <v>-0.09816267133092106</v>
+        <v>-0.07027222342887425</v>
       </c>
       <c r="F85">
-        <v>0.07758367657605439</v>
+        <v>0.07931765524209952</v>
       </c>
       <c r="G85">
-        <v>-0.1964505390251721</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.05774443383270417</v>
+      </c>
+      <c r="H85">
+        <v>-0.2311287205874157</v>
+      </c>
+      <c r="I85">
+        <v>-0.002700046820432171</v>
+      </c>
+      <c r="J85">
+        <v>-0.04065140475228432</v>
+      </c>
+      <c r="K85">
+        <v>-0.06211038992977597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01857662887838876</v>
+        <v>0.01449584738043702</v>
       </c>
       <c r="C86">
-        <v>-0.08179698362775631</v>
+        <v>0.07761830563757728</v>
       </c>
       <c r="D86">
-        <v>-0.004122403313514631</v>
+        <v>0.03118596732302854</v>
       </c>
       <c r="E86">
-        <v>0.009373448867563687</v>
+        <v>0.04418745900822441</v>
       </c>
       <c r="F86">
-        <v>-0.01898640569399708</v>
+        <v>-0.07123754495611836</v>
       </c>
       <c r="G86">
-        <v>0.07343377099575409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.01858406816229375</v>
+      </c>
+      <c r="H86">
+        <v>-0.04839124670757969</v>
+      </c>
+      <c r="I86">
+        <v>0.005291553944011529</v>
+      </c>
+      <c r="J86">
+        <v>0.1441577649115658</v>
+      </c>
+      <c r="K86">
+        <v>-0.1309483905723822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02322135502551184</v>
+        <v>0.02702565179820727</v>
       </c>
       <c r="C87">
-        <v>-0.1522105592337438</v>
+        <v>0.1178495103104346</v>
       </c>
       <c r="D87">
-        <v>0.04346939970708381</v>
+        <v>0.02081234414548424</v>
       </c>
       <c r="E87">
-        <v>0.09000869828715533</v>
+        <v>0.008169814488719172</v>
       </c>
       <c r="F87">
-        <v>-0.05382377429963435</v>
+        <v>-0.03433887652325458</v>
       </c>
       <c r="G87">
-        <v>0.0130662971579271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05021417679714893</v>
+      </c>
+      <c r="H87">
+        <v>-0.009331769748585253</v>
+      </c>
+      <c r="I87">
+        <v>-0.03914255356943477</v>
+      </c>
+      <c r="J87">
+        <v>-0.01934749903921051</v>
+      </c>
+      <c r="K87">
+        <v>0.09528473522589528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.003684741098233451</v>
+        <v>0.03980946265932479</v>
       </c>
       <c r="C88">
-        <v>-0.03632999617245705</v>
+        <v>0.0581471744638444</v>
       </c>
       <c r="D88">
-        <v>0.03464583186053463</v>
+        <v>0.03990844840156534</v>
       </c>
       <c r="E88">
-        <v>-0.0519440433950222</v>
+        <v>-0.01095447425483716</v>
       </c>
       <c r="F88">
-        <v>0.009123025720608762</v>
+        <v>0.02467985992806483</v>
       </c>
       <c r="G88">
-        <v>0.003321182152761366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.005167557225143333</v>
+      </c>
+      <c r="H88">
+        <v>0.01093575597975942</v>
+      </c>
+      <c r="I88">
+        <v>-0.003468323073723869</v>
+      </c>
+      <c r="J88">
+        <v>0.01926830862311864</v>
+      </c>
+      <c r="K88">
+        <v>0.01462556336475508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4005304108674548</v>
+        <v>0.3905097771445522</v>
       </c>
       <c r="C89">
-        <v>0.06183494205251956</v>
+        <v>-0.1211066562811067</v>
       </c>
       <c r="D89">
-        <v>0.07204034095149017</v>
+        <v>-0.03750555752378532</v>
       </c>
       <c r="E89">
-        <v>0.05515338925947005</v>
+        <v>0.04955510993551593</v>
       </c>
       <c r="F89">
-        <v>-0.09219558242054492</v>
+        <v>-0.01161099284821053</v>
       </c>
       <c r="G89">
-        <v>-0.02993999838459839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0272401503373081</v>
+      </c>
+      <c r="H89">
+        <v>0.03648665798843762</v>
+      </c>
+      <c r="I89">
+        <v>0.003467536038716015</v>
+      </c>
+      <c r="J89">
+        <v>-0.07086876945137519</v>
+      </c>
+      <c r="K89">
+        <v>0.7455114445090552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3066868545852892</v>
+        <v>0.315989378124788</v>
       </c>
       <c r="C90">
-        <v>0.01565261318886553</v>
+        <v>-0.07857061522234013</v>
       </c>
       <c r="D90">
-        <v>0.00468143242066129</v>
+        <v>-0.01892754948566149</v>
       </c>
       <c r="E90">
-        <v>0.07445980200873178</v>
+        <v>0.01236145323525153</v>
       </c>
       <c r="F90">
-        <v>0.04528597459325598</v>
+        <v>-0.03228602151196144</v>
       </c>
       <c r="G90">
-        <v>0.03395581652741965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01225461323887632</v>
+      </c>
+      <c r="H90">
+        <v>0.001129874429937719</v>
+      </c>
+      <c r="I90">
+        <v>-0.007298083282066473</v>
+      </c>
+      <c r="J90">
+        <v>-0.01178902209287955</v>
+      </c>
+      <c r="K90">
+        <v>-0.09634700358713877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02069425659104905</v>
+        <v>0.05467827289031875</v>
       </c>
       <c r="C91">
-        <v>-0.07961440194411518</v>
+        <v>0.078514264764885</v>
       </c>
       <c r="D91">
-        <v>0.06394699828831488</v>
+        <v>0.05342455637732896</v>
       </c>
       <c r="E91">
-        <v>-0.05314553285329936</v>
+        <v>-0.06331146787925487</v>
       </c>
       <c r="F91">
-        <v>0.06312670213035691</v>
+        <v>0.01650000670662779</v>
       </c>
       <c r="G91">
-        <v>-0.07186062978725233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0148861258799007</v>
+      </c>
+      <c r="H91">
+        <v>-0.08984144591259841</v>
+      </c>
+      <c r="I91">
+        <v>0.01451304267479139</v>
+      </c>
+      <c r="J91">
+        <v>-0.01252825693152783</v>
+      </c>
+      <c r="K91">
+        <v>-0.003386788153333684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3842557759401707</v>
+        <v>0.35023292863665</v>
       </c>
       <c r="C92">
-        <v>0.0563425285364023</v>
+        <v>-0.1250455363807696</v>
       </c>
       <c r="D92">
-        <v>-0.01544805480295845</v>
+        <v>-0.05550050350130152</v>
       </c>
       <c r="E92">
-        <v>-0.01586374452794978</v>
+        <v>0.04616165830807616</v>
       </c>
       <c r="F92">
-        <v>-0.1199074463165078</v>
+        <v>-0.00322902432344159</v>
       </c>
       <c r="G92">
-        <v>-0.02083583185939901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0480268434514537</v>
+      </c>
+      <c r="H92">
+        <v>-0.01144978786094961</v>
+      </c>
+      <c r="I92">
+        <v>-0.06939124386063557</v>
+      </c>
+      <c r="J92">
+        <v>0.009471061967747392</v>
+      </c>
+      <c r="K92">
+        <v>-0.140095067840178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3068478042732293</v>
+        <v>0.306782383135272</v>
       </c>
       <c r="C93">
-        <v>0.06790817896434483</v>
+        <v>-0.1218694121061916</v>
       </c>
       <c r="D93">
-        <v>0.01239925573761773</v>
+        <v>-0.007375355046140487</v>
       </c>
       <c r="E93">
-        <v>0.0702620823292102</v>
+        <v>0.03815807293666251</v>
       </c>
       <c r="F93">
-        <v>-0.03846208940618745</v>
+        <v>-0.04319731376986807</v>
       </c>
       <c r="G93">
-        <v>-0.002983758055754502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.00950816511163333</v>
+      </c>
+      <c r="H93">
+        <v>-0.0359883168475274</v>
+      </c>
+      <c r="I93">
+        <v>-0.02587107887579231</v>
+      </c>
+      <c r="J93">
+        <v>0.02911382265108496</v>
+      </c>
+      <c r="K93">
+        <v>-0.1143545513987478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02959823845602545</v>
+        <v>0.08261869095634949</v>
       </c>
       <c r="C94">
-        <v>-0.1923936654323923</v>
+        <v>0.1645843208494359</v>
       </c>
       <c r="D94">
-        <v>0.1447258049902001</v>
+        <v>0.1135904922364967</v>
       </c>
       <c r="E94">
-        <v>-0.1600191405742875</v>
+        <v>-0.09155287122676764</v>
       </c>
       <c r="F94">
-        <v>0.07579355130309302</v>
+        <v>0.08511849657669923</v>
       </c>
       <c r="G94">
-        <v>-0.6023463227972636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.06965116168043002</v>
+      </c>
+      <c r="H94">
+        <v>-0.553889848647673</v>
+      </c>
+      <c r="I94">
+        <v>0.1917203995942831</v>
+      </c>
+      <c r="J94">
+        <v>-0.06513225121000078</v>
+      </c>
+      <c r="K94">
+        <v>0.04617642416212378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01748144309104981</v>
+        <v>0.04422629050580147</v>
       </c>
       <c r="C95">
-        <v>-0.1095931294735778</v>
+        <v>0.1307669431339996</v>
       </c>
       <c r="D95">
-        <v>0.05204608754359601</v>
+        <v>0.06632782809208812</v>
       </c>
       <c r="E95">
-        <v>-0.04497205509524616</v>
+        <v>0.006695021515458332</v>
       </c>
       <c r="F95">
-        <v>0.08957398033142591</v>
+        <v>0.04852817451473806</v>
       </c>
       <c r="G95">
-        <v>0.06995599598516404</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.07282898278629665</v>
+      </c>
+      <c r="H95">
+        <v>0.04267820490057391</v>
+      </c>
+      <c r="I95">
+        <v>-0.03280330629112869</v>
+      </c>
+      <c r="J95">
+        <v>-0.08434233996144402</v>
+      </c>
+      <c r="K95">
+        <v>0.1669730178800118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0003170365456550678</v>
+        <v>0.02003900863620026</v>
       </c>
       <c r="C97">
-        <v>0.0004964510511933834</v>
+        <v>0.02330992802701915</v>
       </c>
       <c r="D97">
-        <v>0.0001824521844134096</v>
+        <v>-0.008329396539173344</v>
       </c>
       <c r="E97">
-        <v>-0.004754584219924084</v>
+        <v>0.03649987109620638</v>
       </c>
       <c r="F97">
-        <v>-0.0009287812288258539</v>
+        <v>0.004504178224647377</v>
       </c>
       <c r="G97">
-        <v>0.004844296065609369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04768616760070112</v>
+      </c>
+      <c r="H97">
+        <v>0.03272944426903943</v>
+      </c>
+      <c r="I97">
+        <v>0.007256684995803051</v>
+      </c>
+      <c r="J97">
+        <v>0.06629581965273605</v>
+      </c>
+      <c r="K97">
+        <v>0.04647033623994049</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07875923128919313</v>
+        <v>0.1380091113197498</v>
       </c>
       <c r="C98">
-        <v>-0.1371218494287287</v>
+        <v>0.159710888302589</v>
       </c>
       <c r="D98">
-        <v>0.1409564128846014</v>
+        <v>0.08915893997606457</v>
       </c>
       <c r="E98">
-        <v>-0.1313660879382938</v>
+        <v>-0.1643150207016736</v>
       </c>
       <c r="F98">
-        <v>0.1288730089705362</v>
+        <v>0.196756176118875</v>
       </c>
       <c r="G98">
-        <v>0.1988177757340807</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07837062140534111</v>
+      </c>
+      <c r="H98">
+        <v>0.273940630994856</v>
+      </c>
+      <c r="I98">
+        <v>0.3117823097975415</v>
+      </c>
+      <c r="J98">
+        <v>0.009563624145133957</v>
+      </c>
+      <c r="K98">
+        <v>-0.1440218298491567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02662777060631653</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.07042833223627243</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.008843794834942095</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.3520701579222071</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.2819163708986877</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.6739560617181221</v>
+      </c>
+      <c r="H99">
+        <v>-0.02329623168892752</v>
+      </c>
+      <c r="I99">
+        <v>0.1804072404697479</v>
+      </c>
+      <c r="J99">
+        <v>0.4983156814049909</v>
+      </c>
+      <c r="K99">
+        <v>0.06767127028625076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.007589330746320022</v>
+        <v>0.01758107351435693</v>
       </c>
       <c r="C101">
-        <v>-0.07692540912045612</v>
+        <v>0.08147331726879413</v>
       </c>
       <c r="D101">
-        <v>0.04881309363243551</v>
+        <v>0.04855321300188309</v>
       </c>
       <c r="E101">
-        <v>0.012750149986082</v>
+        <v>-0.02405783660917564</v>
       </c>
       <c r="F101">
-        <v>0.0260453989603084</v>
+        <v>-0.0444855825479141</v>
       </c>
       <c r="G101">
-        <v>0.1191387401401598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02538480451031381</v>
+      </c>
+      <c r="H101">
+        <v>0.1525570209884848</v>
+      </c>
+      <c r="I101">
+        <v>-0.2616681571902802</v>
+      </c>
+      <c r="J101">
+        <v>-6.122194300396832e-05</v>
+      </c>
+      <c r="K101">
+        <v>0.008728259004638562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.003365198656476439</v>
+        <v>0.001652181220031233</v>
       </c>
       <c r="C102">
-        <v>-0.01688334293485739</v>
+        <v>0.006570773760257382</v>
       </c>
       <c r="D102">
-        <v>-0.0005535749463968167</v>
+        <v>-0.001961399084968571</v>
       </c>
       <c r="E102">
-        <v>-0.01744703662289437</v>
+        <v>-0.004334849012668011</v>
       </c>
       <c r="F102">
-        <v>0.01854133588192131</v>
+        <v>0.002466302798929558</v>
       </c>
       <c r="G102">
-        <v>-0.009730799544625706</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001040090296137069</v>
+      </c>
+      <c r="H102">
+        <v>-0.004926646819157826</v>
+      </c>
+      <c r="I102">
+        <v>-0.007713512823662034</v>
+      </c>
+      <c r="J102">
+        <v>0.0008393020075962317</v>
+      </c>
+      <c r="K102">
+        <v>0.0137518140189235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
